--- a/Test Data/FC_Gallery_PanelAccessories_FC702_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FC702_Series_Panels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B87CCA-3270-462C-BAEC-9675BEA41A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3780BBC6-5074-4C7C-9C6D-331F8A1201CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_PanelAccessories_FC702_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FC702_Series_Panels.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3780BBC6-5074-4C7C-9C6D-331F8A1201CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5DC10-FF3D-4319-AD23-89FFFE9B764A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="19" r:id="rId1"/>
     <sheet name="Turkey" sheetId="20" r:id="rId2"/>
     <sheet name="Belgium" sheetId="14" r:id="rId3"/>
+    <sheet name="Romania" sheetId="21" r:id="rId4"/>
+    <sheet name="Slovakia" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -83,6 +85,24 @@
   </si>
   <si>
     <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3536/T3543</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3562/T3575</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
   </si>
 </sst>
 </file>
@@ -512,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,11 +617,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -617,112 +647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C382851-823C-42B7-BE6C-6CE86E72DECF}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -749,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -807,11 +732,370 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A844BB5-BB8A-4070-84C8-41C4E351EB80}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7E901F-5BBF-43B2-B2C5-C8146DA72F50}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/FC_Gallery_PanelAccessories_FC702_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FC702_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5DC10-FF3D-4319-AD23-89FFFE9B764A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08002BA6-C481-4DCC-B72B-42AEAAAF9891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="19" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Belgium" sheetId="14" r:id="rId3"/>
     <sheet name="Romania" sheetId="21" r:id="rId4"/>
     <sheet name="Slovakia" sheetId="22" r:id="rId5"/>
+    <sheet name="Hungary" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3593/T3618</t>
   </si>
 </sst>
 </file>
@@ -534,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,4 +1114,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F888D092-D893-4694-8047-A31376567FB2}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>